--- a/natmiOut/YoungD7/LR-pairs_lrc2p/H2-T23-Klrd1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/H2-T23-Klrd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.5149430235843</v>
+        <v>19.533617</v>
       </c>
       <c r="H2">
-        <v>18.5149430235843</v>
+        <v>58.60085100000001</v>
       </c>
       <c r="I2">
-        <v>0.227560843225333</v>
+        <v>0.2136330238377745</v>
       </c>
       <c r="J2">
-        <v>0.227560843225333</v>
+        <v>0.2136330238377745</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.861507968617836</v>
+        <v>1.286367333333333</v>
       </c>
       <c r="N2">
-        <v>0.861507968617836</v>
+        <v>3.859102</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.416990774147385</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4169907741473849</v>
       </c>
       <c r="Q2">
-        <v>15.95077095332308</v>
+        <v>25.12740681064467</v>
       </c>
       <c r="R2">
-        <v>15.95077095332308</v>
+        <v>226.146661295802</v>
       </c>
       <c r="S2">
-        <v>0.227560843225333</v>
+        <v>0.08908299999356034</v>
       </c>
       <c r="T2">
-        <v>0.227560843225333</v>
+        <v>0.08908299999356034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.6188055581533</v>
+        <v>19.533617</v>
       </c>
       <c r="H3">
-        <v>11.6188055581533</v>
+        <v>58.60085100000001</v>
       </c>
       <c r="I3">
-        <v>0.1428027721563413</v>
+        <v>0.2136330238377745</v>
       </c>
       <c r="J3">
-        <v>0.1428027721563413</v>
+        <v>0.2136330238377745</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.861507968617836</v>
+        <v>1.798514666666667</v>
       </c>
       <c r="N3">
-        <v>0.861507968617836</v>
+        <v>5.395544</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5830092258526149</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5830092258526149</v>
       </c>
       <c r="Q3">
-        <v>10.00969357417027</v>
+        <v>35.13149666754934</v>
       </c>
       <c r="R3">
-        <v>10.00969357417027</v>
+        <v>316.183470007944</v>
       </c>
       <c r="S3">
-        <v>0.1428027721563413</v>
+        <v>0.1245500238442141</v>
       </c>
       <c r="T3">
-        <v>0.1428027721563413</v>
+        <v>0.1245500238442142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.4591952710205</v>
+        <v>11.64762966666667</v>
       </c>
       <c r="H4">
-        <v>49.4591952710205</v>
+        <v>34.942889</v>
       </c>
       <c r="I4">
-        <v>0.6078860824353203</v>
+        <v>0.1273864613109067</v>
       </c>
       <c r="J4">
-        <v>0.6078860824353203</v>
+        <v>0.1273864613109067</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.861507968617836</v>
+        <v>1.286367333333333</v>
       </c>
       <c r="N4">
-        <v>0.861507968617836</v>
+        <v>3.859102</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.416990774147385</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4169907741473849</v>
       </c>
       <c r="Q4">
-        <v>42.60949084740975</v>
+        <v>14.98313031396422</v>
       </c>
       <c r="R4">
-        <v>42.60949084740975</v>
+        <v>134.848172825678</v>
       </c>
       <c r="S4">
-        <v>0.6078860824353203</v>
+        <v>0.05311897911793089</v>
       </c>
       <c r="T4">
-        <v>0.6078860824353203</v>
+        <v>0.0531189791179309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.76966124732332</v>
+        <v>11.64762966666667</v>
       </c>
       <c r="H5">
-        <v>1.76966124732332</v>
+        <v>34.942889</v>
       </c>
       <c r="I5">
-        <v>0.02175030218300556</v>
+        <v>0.1273864613109067</v>
       </c>
       <c r="J5">
-        <v>0.02175030218300556</v>
+        <v>0.1273864613109067</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.861507968617836</v>
+        <v>1.798514666666667</v>
       </c>
       <c r="N5">
-        <v>0.861507968617836</v>
+        <v>5.395544</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.5830092258526149</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5830092258526149</v>
       </c>
       <c r="Q5">
-        <v>1.524577266323219</v>
+        <v>20.94843278740178</v>
       </c>
       <c r="R5">
-        <v>1.524577266323219</v>
+        <v>188.535895086616</v>
       </c>
       <c r="S5">
-        <v>0.02175030218300556</v>
+        <v>0.0742674821929758</v>
       </c>
       <c r="T5">
-        <v>0.02175030218300556</v>
+        <v>0.07426748219297581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>58.462443</v>
+      </c>
+      <c r="H6">
+        <v>175.387329</v>
+      </c>
+      <c r="I6">
+        <v>0.6393853467605888</v>
+      </c>
+      <c r="J6">
+        <v>0.6393853467605889</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>1.286367333333333</v>
+      </c>
+      <c r="N6">
+        <v>3.859102</v>
+      </c>
+      <c r="O6">
+        <v>0.416990774147385</v>
+      </c>
+      <c r="P6">
+        <v>0.4169907741473849</v>
+      </c>
+      <c r="Q6">
+        <v>75.204176902062</v>
+      </c>
+      <c r="R6">
+        <v>676.837592118558</v>
+      </c>
+      <c r="S6">
+        <v>0.2666177907241921</v>
+      </c>
+      <c r="T6">
+        <v>0.2666177907241921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>58.462443</v>
+      </c>
+      <c r="H7">
+        <v>175.387329</v>
+      </c>
+      <c r="I7">
+        <v>0.6393853467605888</v>
+      </c>
+      <c r="J7">
+        <v>0.6393853467605889</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.798514666666667</v>
+      </c>
+      <c r="N7">
+        <v>5.395544</v>
+      </c>
+      <c r="O7">
+        <v>0.5830092258526149</v>
+      </c>
+      <c r="P7">
+        <v>0.5830092258526149</v>
+      </c>
+      <c r="Q7">
+        <v>105.145561184664</v>
+      </c>
+      <c r="R7">
+        <v>946.310050661976</v>
+      </c>
+      <c r="S7">
+        <v>0.3727675560363966</v>
+      </c>
+      <c r="T7">
+        <v>0.3727675560363967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.791691666666667</v>
+      </c>
+      <c r="H8">
+        <v>5.375075</v>
+      </c>
+      <c r="I8">
+        <v>0.01959516809073004</v>
+      </c>
+      <c r="J8">
+        <v>0.01959516809073004</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>1.286367333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.859102</v>
+      </c>
+      <c r="O8">
+        <v>0.416990774147385</v>
+      </c>
+      <c r="P8">
+        <v>0.4169907741473849</v>
+      </c>
+      <c r="Q8">
+        <v>2.304773631405556</v>
+      </c>
+      <c r="R8">
+        <v>20.74296268265</v>
+      </c>
+      <c r="S8">
+        <v>0.008171004311701657</v>
+      </c>
+      <c r="T8">
+        <v>0.008171004311701657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.791691666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.375075</v>
+      </c>
+      <c r="I9">
+        <v>0.01959516809073004</v>
+      </c>
+      <c r="J9">
+        <v>0.01959516809073004</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.798514666666667</v>
+      </c>
+      <c r="N9">
+        <v>5.395544</v>
+      </c>
+      <c r="O9">
+        <v>0.5830092258526149</v>
+      </c>
+      <c r="P9">
+        <v>0.5830092258526149</v>
+      </c>
+      <c r="Q9">
+        <v>3.222383740644445</v>
+      </c>
+      <c r="R9">
+        <v>29.0014536658</v>
+      </c>
+      <c r="S9">
+        <v>0.01142416377902838</v>
+      </c>
+      <c r="T9">
+        <v>0.01142416377902839</v>
       </c>
     </row>
   </sheetData>
